--- a/Autumn2013/AppInfo/RecommendationLettersInfo.xlsx
+++ b/Autumn2013/AppInfo/RecommendationLettersInfo.xlsx
@@ -16,169 +16,374 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="61">
+  <si>
+    <t>Program</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deadline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Carnegie Mellon University</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stanford University</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Massachusetts Institute of Technology</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Massachusetts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yale University</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dartmouth College</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Virginia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Georgia Insititute of Technology</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cornell University</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M.S. in Computer Science</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M.S. in Computer Graphics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dec. 3, 2012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dec. 11, 2012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dec. 15, 2012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jan. 2, 2013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jan. 15, 2013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Feb. 1, 2013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Feb. 15, 2013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Method of Submission</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jan. 3, 2013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please submit recommendation online after receiving an e-mail prompt I sent.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please submit recommendation online after receiving an e-mail prompt generated by the system.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of California San Diego</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of California Santa Barbara</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSE Graduate Admissions Office
+Department of Computer Science and Engineering
+University of California, San Diego
+Graduate Admissions Office
+9500 Gilman Drive, Mail Code 0443
+La Jolla, CA 92093-0443
+USA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Computer Science Graduate Admissions
+Gates Building, Room 196
+353 Serra Mall, Stanford University
+Stanford, CA 94305-9015
+USA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Columbia University</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Office of Graduate Student Affairs
+Columbia Engineering
+254ET S.W. Mudd, MC 4708
+New York, NY 10027
+USA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Address of Department</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSE Department
+Department of Computer Science and Engineering
+University of California, San Diego
+9500 Gilman Drive, Mail Code 0404
+La Jolla, CA 92093-0404
+USA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Computer Science Department
+353 Serra Mall
+Stanford University
+Stanford, CA 94305-9025
+USA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Computer Science Department
+Carnegie Mellon University
+5000 Forbes Avenue
+Pittsburgh, PA 15213
+USA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Address of Graduate Admissions (Office or Administrator)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Program of Computer Graphics
+ 580 Rhodes Hall
+ Cornell University
+ Ithaca, NY 14853
+ USA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EECS Graduate Office
+MIT, room 38-444
+77 Massachusetts Avenue
+Cambridge, MA 02139
+USA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Department of Electrical Engineering and Computer Science
+Massachusetts Institute of Technology
+Room 38-401
+77 Massachusetts Avenue
+Cambridge, MA 02139-4307</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Electrical &amp; Computer Engineering
+Harold Frank Hall, Room 4155
+University of California
+Santa Barbara, CA 93106-9560
+USA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Department of Computer Science
+450 Computer Science Building
+1214 Amsterdam Avenue, Mailcode: 0401
+New York, New York 10027-7003
+USA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Graduate Admissions Office
+530 Goodell Building
+140 Hicks Way
+University of Massachusetts Amherst
+Amherst, MA 01003
+USA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Computer Science Building
+140 Governors Drive
+University of Massachusetts Amherst
+Amherst, MA 01003-9264
+USA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Department of Computer Science
+Yale University
+P.O. Box 208285
+New Haven, CT 06520-8285
+USA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Office of Graduate Admissions
+Yale University
+P.O. Box 208323
+New Haven, CT 06520
+USA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Graduate Admissions Office
+530 Goodell Building
+140 Hicks Way
+University of Massachusetts Amherst
+Amherst, MA 01003
+USA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transcript Mailing Address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Department of Computer Science
+Dartmouth College
+6211 Sudikoff Lab
+Hanover, NH 03755-3510
+USA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Master's Program Committee
+Office of Graduate Studies
+Dartmouth College
+6062 Wentworth Hall
+Hanover, NH 03755-3510
+USA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Department of Computer Science
+University of Virginia
+PO Box 400740
+Charlottesville, VA 22904
+USA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Graduate Programs
+University of Virginia
+P.O. Box 400242
+Charlottesville, VA 22904-4242
+USA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Martha Clarke, Graduate Admissions
+Computer Science Department
+Carnegie Mellon University
+5000 Forbes Avenue
+Pittsburgh, PA 15213
+USA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Martha Clarke, Admissions Coordinator
+Gates Center for Computer Science
+Carnegie Mellon University
+5000 Forbes Avenue
+Pittsburgh, PA 15213-3891
+USA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Computer Science Graduate Admissions
+Gates Building, Room 196
+353 Serra Mall, Stanford University
+Stanford, CA 94305-9015
+USA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>Name of School</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Program</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Deadline</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Carnegie Mellon University</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stanford University</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Massachusetts Institute of Technology</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>University of Massachusetts</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yale University</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dartmouth College</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>University of Virginia</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Georgia Insititute of Technology</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>University of Columbia</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cornell University</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M.S. in Computer Science</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M.S. in Computer Graphics</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dec. 3, 2012</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dec. 11, 2012</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dec. 15, 2012</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jan. 2, 2013</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jan. 15, 2013</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Feb. 1, 2013</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Feb. 15, 2013</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Method of Submission</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Computer Science and Engineering Graduate Admissions Office</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Computer Science Graduate Admissions</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Office of Graduate Student Affairs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tracy Farbacher, MS Program Coordinator, Computer Science Department</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Graduate Admissions</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cornell University Graduate School</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jan. 3, 2013</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Electronic Engineering and Computer Science Graduate Office</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Please submit recommendation online after receiving an e-mail prompt I sent.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Please submit recommendation online after receiving an e-mail prompt generated by the system.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>University of California San Diego</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>University of California Santa Barbara</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Graduate Program Assistant, Department of Electrical and Computer Engineering</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Graduate Admissions Office</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Master's Program Committee, Office of Graduate Studies</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Office of Graduate Admissions</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Graduate Studies Office, School of Engineering and Applied Science</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Affiliation(?)</t>
+    <t>Office of Graduate Student Affairs
+Columbia Engineering
+254ET S.W. Mudd, MC 4708
+New York, NY 10027
+USA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Graduate Programs in Architecture
+College of Architecture, Art, and Planning
+Cornell University
+235 Sibley Dome
+Ithaca, NY 14853
+USA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EECS Graduate Office
+MIT, room 38-444
+77 Massachusetts Avenue
+Cambridge, MA 02139
+USA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Graduate Program Assistant
+Department of ECE
+University of California
+Santa Barbara, CA 93106-9560
+USA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Graduate Admissions
+Georgia Institute of Technology
+631 Cherry Street, Room 318
+Atlanta, GA 30332-0321</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>School of Interactive Computing
+Georgia Institute of Technology
+Tech Square Research Building
+85 Fifth Street NW
+Atlanta, GA 30308
+USA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -186,7 +391,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -204,33 +409,26 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
       <name val="新細明體"/>
-      <family val="2"/>
+      <family val="1"/>
       <charset val="136"/>
-      <scheme val="minor"/>
+      <scheme val="major"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
+      <name val="新細明體"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="major"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="Times New Roman"/>
+      <color rgb="FF000000"/>
+      <name val="新細明體"/>
       <family val="1"/>
+      <charset val="136"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="7">
@@ -285,7 +483,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -295,37 +493,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -622,240 +829,320 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="35.25" style="7" customWidth="1"/>
+    <col min="1" max="1" width="35.25" style="3" customWidth="1"/>
     <col min="2" max="2" width="27.875" style="2" customWidth="1"/>
     <col min="3" max="3" width="16.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="79.375" customWidth="1"/>
     <col min="5" max="5" width="65.125" customWidth="1"/>
+    <col min="6" max="6" width="42.375" customWidth="1"/>
+    <col min="7" max="7" width="36.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1">
+    <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="99">
+      <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="B2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="82.5">
+      <c r="A3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="115.5">
+      <c r="A4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="99">
+      <c r="A5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E5" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="99">
+      <c r="A6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="F6" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="82.5">
+      <c r="A7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="D7" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="99">
+      <c r="A8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="10" t="s">
+      <c r="D8" s="12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="E8" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="82.5">
+      <c r="A9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="D9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="82.5">
+      <c r="A10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="D10" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="99">
+      <c r="A11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="D11" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="82.5">
+      <c r="A12" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="11" t="s">
+      <c r="D12" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="13" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="10" t="s">
+      <c r="G12" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="99">
+      <c r="A13" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="13" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>28</v>
+      <c r="G13" s="13" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/Autumn2013/AppInfo/RecommendationLettersInfo.xlsx
+++ b/Autumn2013/AppInfo/RecommendationLettersInfo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="60">
   <si>
     <t>Program</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,10 +43,6 @@
   </si>
   <si>
     <t>Yale University</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dartmouth College</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -272,23 +268,6 @@
   </si>
   <si>
     <t>Department of Computer Science
-Dartmouth College
-6211 Sudikoff Lab
-Hanover, NH 03755-3510
-USA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Master's Program Committee
-Office of Graduate Studies
-Dartmouth College
-6062 Wentworth Hall
-Hanover, NH 03755-3510
-USA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Department of Computer Science
 University of Virginia
 PO Box 400740
 Charlottesville, VA 22904
@@ -384,6 +363,14 @@
 85 Fifth Street NW
 Atlanta, GA 30308
 USA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ph.D. in Computer Science</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">MS in Electrical &amp; Computer Engineering </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -829,10 +816,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -848,7 +835,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -857,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="99">
@@ -874,22 +861,22 @@
         <v>2</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="82.5">
@@ -897,45 +884,45 @@
         <v>3</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="115.5">
       <c r="A4" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="99">
@@ -943,22 +930,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>37</v>
-      </c>
       <c r="G5" s="13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="99">
@@ -966,22 +953,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="13" t="s">
-        <v>41</v>
-      </c>
       <c r="G6" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="82.5">
@@ -989,160 +976,137 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="99">
       <c r="A8" s="10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>50</v>
+        <v>22</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>53</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="82.5">
       <c r="A9" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="82.5">
       <c r="A10" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="99">
       <c r="A11" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="82.5">
       <c r="A12" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>29</v>
-      </c>
       <c r="F12" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="99">
-      <c r="A13" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
